--- a/src/analysis_examples/circadb/results_lomb/cosinor_10421917_pabpc4_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10421917_pabpc4_.xlsx
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3064250545058546, 0.4639090977373494]</t>
+          <t>[0.3059440632083851, 0.46439008903481893]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.434940610778312e-09</v>
+        <v>1.597203924674773e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.434940610778312e-09</v>
+        <v>1.597203924674773e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3647895373537695</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, -0.1509473947670763]</t>
+          <t>[-0.5660527303765397, -0.16352634433099933]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.001905810781186679</v>
+        <v>0.001126363136660258</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001905810781186679</v>
+        <v>0.001126363136660258</v>
       </c>
       <c r="S2" t="n">
         <v>0.4154255635579804</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.37127793493027783, 0.45957319218568304]</t>
+          <t>[0.37124636196321725, 0.4596047651527436]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="V2" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="W2" t="n">
         <v>1.540280280280335</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6373573573573749</v>
+        <v>0.6904704704704897</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.443203203203295</v>
+        <v>2.39009009009018</v>
       </c>
     </row>
   </sheetData>
